--- a/supplementary 2.xlsx
+++ b/supplementary 2.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8FCFDB-0701-F445-B68B-6E4E26CE5ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D4257E-FDA3-4F44-9D70-47C0FC970BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4340" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DC5FD3E2-9F5C-3047-B311-73C96ED1C523}"/>
   </bookViews>
   <sheets>
     <sheet name="one-hot encoding method" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="129">
   <si>
     <t>categories</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -449,6 +452,88 @@
   <si>
     <t>A=article</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computers and Electronics in Agriculture 0168-1699</t>
+  </si>
+  <si>
+    <t>Agriculture-Basel 2077-0472</t>
+  </si>
+  <si>
+    <t>Livestock Science 1871-1413</t>
+  </si>
+  <si>
+    <t>Animals 2076-2615</t>
+  </si>
+  <si>
+    <t>Sensors 1424-8220</t>
+  </si>
+  <si>
+    <t>International Journal of Remote Sensing 0143-1161</t>
+  </si>
+  <si>
+    <t>Scientific Reports 2045-2322</t>
+  </si>
+  <si>
+    <t>International Journal of Engineering and Geosciences 2548-0960</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of Dairy Science 0022-0302</t>
+  </si>
+  <si>
+    <t>Biosystems Engineering 1537-5110</t>
+  </si>
+  <si>
+    <t>Computers in Industry 0166-3615</t>
+  </si>
+  <si>
+    <t>Journal of Animal Science 0021-8812</t>
+  </si>
+  <si>
+    <t>Animal 1751-7311</t>
+  </si>
+  <si>
+    <t>Australian Farm Business Management Journal 1449-5937</t>
+  </si>
+  <si>
+    <t>Springerplus 2193-1801</t>
+  </si>
+  <si>
+    <t>Cattle Practice 0969-1251</t>
+  </si>
+  <si>
+    <t>Artificial Life and Robotics 1433-5298 1614-7456</t>
+  </si>
+  <si>
+    <t>Journal of Robotics and Mechatronics 0915-3942</t>
+  </si>
+  <si>
+    <t>Journal of Animal Science 0021-8812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>Scientific Reports 2045-2322</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>International Journal of Engineering and Geosciences 2548-0960</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -520,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +630,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,6 +657,417 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="yaowu.wang@wur.nl" refreshedDate="44619.914434837963" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="47" xr:uid="{907706F7-6FB3-C84A-BF42-69406CEEDA72}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C48" sheet="one-hot" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="number" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="wos" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Journal" numFmtId="0">
+      <sharedItems containsBlank="1" count="21">
+        <s v="Computers and Electronics in Agriculture 0168-1699"/>
+        <s v="Agriculture-Basel 2077-0472"/>
+        <s v="Livestock Science 1871-1413"/>
+        <s v="Animals 2076-2615"/>
+        <s v="Sensors 1424-8220"/>
+        <s v="International Journal of Remote Sensing 0143-1161"/>
+        <s v="Scientific Reports 2045-2322"/>
+        <s v="International Journal of Engineering and Geosciences 2548-0960"/>
+        <s v="Journal of Dairy Science 0022-0302"/>
+        <s v="Biosystems Engineering 1537-5110"/>
+        <s v="Computers in Industry 0166-3615"/>
+        <s v="Journal of Animal Science 0021-8812"/>
+        <s v="Animal 1751-7311"/>
+        <s v="Australian Farm Business Management Journal 1449-5937"/>
+        <s v="Springerplus 2193-1801"/>
+        <s v="Cattle Practice 0969-1251"/>
+        <s v="Artificial Life and Robotics 1433-5298 1614-7456"/>
+        <s v="Journal of Robotics and Mechatronics 0915-3942"/>
+        <s v="NAN"/>
+        <m u="1"/>
+        <s v="Journal of Biosystems Engineering 1738-1266" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="47">
+  <r>
+    <s v="cattle No. 2"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.3"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="cattle No. 4"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="cattle No. 5"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="cattle No.6"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="cattle No.7"/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="cattle No.8"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="cattle No.9"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="cattle No.10"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="cattle No.11"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.48"/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="cattle No.12"/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="cattle No.13"/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="cattle No.14"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.15"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.16"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.17"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="cattle No.18"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="cattle No.19"/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="cattle No.20"/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="cattle No.21"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="cattle No.22"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="cattle No.23"/>
+    <m/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="cattle No.24"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="cattle No.25"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="cattle No.26"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="cattle No.27"/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="cattle No.28"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="cattle No.29"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="cattle No.30"/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="cattle No.31"/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="cattle No.32"/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="cattle No.33"/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="cattle No.34"/>
+    <m/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="cattle No.35"/>
+    <m/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="cattle No.36"/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="cattle No.37"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.38"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="cattle No.39"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="cattle No.40"/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="cattle No.41"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.42"/>
+    <m/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="cattle No.43"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="cattle No.44"/>
+    <m/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="cattle No.45"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="cattle No.46"/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="cattle No.47"/>
+    <m/>
+    <x v="18"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D42FDE8C-2093-9845-AE51-B3EAF5F8BF33}" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Journal">
+  <location ref="F52:G72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="22">
+        <item x="12"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item m="1" x="20"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item m="1" x="19"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5216FE9-3BBF-5046-A6CA-9B679C59869A}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -870,9 +1378,12 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="19">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19">
       <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
@@ -882,9 +1393,12 @@
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="34">
+      <c r="D1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="51">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -894,11 +1408,14 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="34">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="34">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -908,9 +1425,12 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="34">
+      <c r="D3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="34">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -920,9 +1440,12 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="62" customHeight="1">
+      <c r="D4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="62" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -932,9 +1455,12 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="34">
+      <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="34">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -944,9 +1470,12 @@
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="62" customHeight="1">
+      <c r="D6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="62" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -956,9 +1485,12 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="51">
+      <c r="D7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="51">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -968,9 +1500,12 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="17">
+      <c r="D8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="17">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -980,9 +1515,12 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="51">
+      <c r="D9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="51">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -992,9 +1530,12 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="34">
+      <c r="D10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="51">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1004,9 +1545,12 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="34">
+      <c r="D11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="51">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1016,9 +1560,12 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="34">
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="34">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1028,9 +1575,12 @@
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="34">
+      <c r="D13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="34">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1040,9 +1590,12 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="51">
+      <c r="D14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="51">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1052,9 +1605,12 @@
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="34">
+      <c r="D15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="34">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1064,9 +1620,12 @@
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="34">
+      <c r="D16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="34">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1076,9 +1635,12 @@
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="47" customHeight="1">
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="47" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -1088,9 +1650,12 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="34">
+      <c r="D18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="34">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1100,9 +1665,12 @@
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="51">
+      <c r="D19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="51">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1112,9 +1680,12 @@
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="51">
+      <c r="D20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="51">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1124,9 +1695,12 @@
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="34">
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="34">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -1136,9 +1710,12 @@
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="34">
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="34">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1148,9 +1725,12 @@
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="34">
+      <c r="D23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="34">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1160,9 +1740,12 @@
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="51">
+      <c r="D24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="51">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1172,9 +1755,12 @@
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="34">
+      <c r="D25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="34">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1184,9 +1770,12 @@
       <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="34">
+      <c r="D26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="34">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -1196,9 +1785,12 @@
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="34">
+      <c r="D27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="34">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -1208,9 +1800,12 @@
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="51">
+      <c r="D28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="51">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1220,9 +1815,12 @@
       <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="34">
+      <c r="D29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="34">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -1232,9 +1830,12 @@
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="51">
+      <c r="D30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="51">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -1244,9 +1845,12 @@
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="34">
+      <c r="D31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="34">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
@@ -1256,8 +1860,11 @@
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="34">
+      <c r="D32" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="51">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -1267,8 +1874,11 @@
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="34">
+      <c r="D33" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
@@ -1278,8 +1888,11 @@
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17">
+      <c r="D34" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -1289,8 +1902,11 @@
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="51">
+      <c r="D35" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="51">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
@@ -1300,8 +1916,11 @@
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="51">
+      <c r="D36" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="51">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -1311,8 +1930,11 @@
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="34">
+      <c r="D37" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
@@ -1322,8 +1944,11 @@
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="34">
+      <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1333,8 +1958,11 @@
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="34">
+      <c r="D39" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1344,8 +1972,11 @@
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="51">
+      <c r="D40" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="51">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -1355,8 +1986,11 @@
       <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="34">
+      <c r="D41" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="34">
       <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
@@ -1366,8 +2000,11 @@
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="34">
+      <c r="D42" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="34">
       <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
@@ -1377,8 +2014,11 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="34">
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34">
       <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
@@ -1388,8 +2028,11 @@
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="34">
+      <c r="D44" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="34">
       <c r="A45" s="3" t="s">
         <v>93</v>
       </c>
@@ -1399,8 +2042,11 @@
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="51">
+      <c r="D45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="51">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -1410,8 +2056,11 @@
       <c r="C46" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="34">
+      <c r="D46" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="34">
       <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
@@ -1421,8 +2070,11 @@
       <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="34">
+      <c r="D47" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34">
       <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
@@ -1432,19 +2084,195 @@
       <c r="C48" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1">
+      <c r="D48" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="D52" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="E52" s="3"/>
+      <c r="F52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="F53" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="F54" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="F55" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="F56" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="F57" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="F58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="F59" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="F60" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="F61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="F62" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="F63" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="F64" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7">
+      <c r="F67" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7">
+      <c r="F68" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7">
+      <c r="F69" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7">
+      <c r="F70" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="11">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate>
     <dataRefs count="1">
-      <dataRef ref="B2:B54" sheet="one-hot" r:id="rId1"/>
+      <dataRef ref="B2:B54" sheet="one-hot" r:id="rId2"/>
     </dataRefs>
   </dataConsolidate>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/supplementary 2.xlsx
+++ b/supplementary 2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D4257E-FDA3-4F44-9D70-47C0FC970BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8720E195-07E4-4148-BE74-62CF80A3C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DC5FD3E2-9F5C-3047-B311-73C96ED1C523}"/>
+    <workbookView xWindow="-11180" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DC5FD3E2-9F5C-3047-B311-73C96ED1C523}"/>
   </bookViews>
   <sheets>
-    <sheet name="one-hot encoding method" sheetId="1" r:id="rId1"/>
+    <sheet name="encoded titles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -946,7 +946,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D42FDE8C-2093-9845-AE51-B3EAF5F8BF33}" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Journal">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D42FDE8C-2093-9845-AE51-B3EAF5F8BF33}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Journal">
   <location ref="F52:G72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5216FE9-3BBF-5046-A6CA-9B679C59869A}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="51">
+    <row r="2" spans="1:6" ht="34">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="51">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="34">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
